--- a/src/test/resources/Documents/4182/Base/JobMaterial.xlsx
+++ b/src/test/resources/Documents/4182/Base/JobMaterial.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="52">
   <si>
     <t>Materialtype</t>
   </si>
@@ -71,97 +71,103 @@
     <t>Ink / Varnish</t>
   </si>
   <si>
+    <t>Sheet-fed Press F 5x0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyan - Sheet-fed Offset - </t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>lbs</t>
+  </si>
+  <si>
+    <t>M594GN - 4/C Process (General)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black - Sheet-fed Offset - </t>
+  </si>
+  <si>
+    <t>M594GK - Black (General)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PANTONE Yellow U  - Sheet-fed Offset - </t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow - Sheet-fed Offset - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magenta - Sheet-fed Offset - </t>
+  </si>
+  <si>
+    <t>Sheet-fed Press B 0x4</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
     <t>Text  2p</t>
   </si>
   <si>
     <t>Sheet-fed Press Work and Turn 4x4</t>
   </si>
   <si>
-    <t xml:space="preserve">Black - Sheet-fed Offset - </t>
-  </si>
-  <si>
     <t>0.12</t>
   </si>
   <si>
-    <t>lbs</t>
-  </si>
-  <si>
-    <t>M594GK - Black (General)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magenta - Sheet-fed Offset - </t>
-  </si>
-  <si>
-    <t>M594GN - 4/C Process (General)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yellow - Sheet-fed Offset - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyan - Sheet-fed Offset - </t>
-  </si>
-  <si>
-    <t>Sheet-fed Press F 4x0</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>Sheet-fed Press B 0x4</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
     <t>Plate</t>
   </si>
   <si>
+    <t>Plate - Text  2p</t>
+  </si>
+  <si>
+    <t>OKTP</t>
+  </si>
+  <si>
+    <t>40" Plates (each, iQuote)</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>Each</t>
+  </si>
+  <si>
+    <t>M295PD40 - Plate (Digital) 40"</t>
+  </si>
+  <si>
     <t>Plate - Cover   4p</t>
   </si>
   <si>
-    <t>OKTP</t>
-  </si>
-  <si>
-    <t>40" Plates (each, iQuote)</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>Each</t>
-  </si>
-  <si>
-    <t>M295PD40 - Plate (Digital) 40"</t>
-  </si>
-  <si>
-    <t>Plate - Text  2p</t>
-  </si>
-  <si>
-    <t>4.00</t>
+    <t>9.00</t>
   </si>
   <si>
     <t>Sheet</t>
   </si>
   <si>
+    <t>C1S Board, Standard - 16pt 25 x 38" 130 ppi</t>
+  </si>
+  <si>
+    <t>1,659.00</t>
+  </si>
+  <si>
+    <t>Per M (prod)</t>
+  </si>
+  <si>
+    <t>JS20201000-M - Sheetfed Paper Coated Board C1S (M)</t>
+  </si>
+  <si>
     <t>Gloss Text, Grade 3 -  80# 19 x 25" 500 ppi</t>
   </si>
   <si>
     <t>1,004.00</t>
   </si>
   <si>
-    <t>Per M (prod)</t>
-  </si>
-  <si>
     <t>JS20103011-M - Sheetfed Paper Coated #3 Gloss Offset (M)</t>
-  </si>
-  <si>
-    <t>C1S Board, Standard - 16pt 25 x 38" 130 ppi</t>
-  </si>
-  <si>
-    <t>1,579.00</t>
-  </si>
-  <si>
-    <t>JS20201000-M - Sheetfed Paper Coated Board C1S (M)</t>
   </si>
 </sst>
 </file>
@@ -169,13 +175,63 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="182">
+  <fonts count="192">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1103,7 +1159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1286,6 +1342,16 @@
     <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1399,25 +1465,25 @@
         <v>18</v>
       </c>
       <c r="B4" t="s" s="23">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s" s="24">
         <v>19</v>
       </c>
-      <c r="C4" t="s" s="24">
+      <c r="D4" t="s" s="25">
         <v>20</v>
       </c>
-      <c r="D4" t="s" s="25">
+      <c r="E4" t="s" s="26">
         <v>21</v>
       </c>
-      <c r="E4" t="s" s="26">
+      <c r="F4" t="s" s="27">
         <v>22</v>
       </c>
-      <c r="F4" t="s" s="27">
+      <c r="G4" t="s" s="28">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s" s="29">
         <v>23</v>
-      </c>
-      <c r="G4" t="s" s="28">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s" s="29">
-        <v>24</v>
       </c>
       <c r="I4" t="s" s="30">
         <v>16</v>
@@ -1431,25 +1497,25 @@
         <v>18</v>
       </c>
       <c r="B5" t="s" s="33">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s" s="34">
         <v>19</v>
       </c>
-      <c r="C5" t="s" s="34">
-        <v>20</v>
-      </c>
       <c r="D5" t="s" s="35">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s" s="36">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s" s="37">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s" s="38">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s" s="39">
         <v>25</v>
-      </c>
-      <c r="E5" t="s" s="36">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s" s="37">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s" s="38">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s" s="39">
-        <v>26</v>
       </c>
       <c r="I5" t="s" s="40">
         <v>16</v>
@@ -1463,25 +1529,25 @@
         <v>18</v>
       </c>
       <c r="B6" t="s" s="43">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s" s="44">
         <v>19</v>
       </c>
-      <c r="C6" t="s" s="44">
-        <v>20</v>
-      </c>
       <c r="D6" t="s" s="45">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s" s="46">
         <v>27</v>
       </c>
-      <c r="E6" t="s" s="46">
+      <c r="F6" t="s" s="47">
         <v>22</v>
       </c>
-      <c r="F6" t="s" s="47">
-        <v>23</v>
-      </c>
       <c r="G6" t="s" s="48">
         <v>16</v>
       </c>
       <c r="H6" t="s" s="49">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s" s="50">
         <v>16</v>
@@ -1495,25 +1561,25 @@
         <v>18</v>
       </c>
       <c r="B7" t="s" s="53">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s" s="54">
         <v>19</v>
-      </c>
-      <c r="C7" t="s" s="54">
-        <v>20</v>
       </c>
       <c r="D7" t="s" s="55">
         <v>28</v>
       </c>
       <c r="E7" t="s" s="56">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s" s="57">
         <v>22</v>
       </c>
-      <c r="F7" t="s" s="57">
+      <c r="G7" t="s" s="58">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s" s="59">
         <v>23</v>
-      </c>
-      <c r="G7" t="s" s="58">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s" s="59">
-        <v>26</v>
       </c>
       <c r="I7" t="s" s="60">
         <v>16</v>
@@ -1530,22 +1596,22 @@
         <v>11</v>
       </c>
       <c r="C8" t="s" s="64">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s" s="65">
         <v>29</v>
       </c>
-      <c r="D8" t="s" s="65">
+      <c r="E8" t="s" s="66">
         <v>21</v>
       </c>
-      <c r="E8" t="s" s="66">
-        <v>30</v>
-      </c>
       <c r="F8" t="s" s="67">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s" s="68">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s" s="69">
         <v>23</v>
-      </c>
-      <c r="G8" t="s" s="68">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s" s="69">
-        <v>24</v>
       </c>
       <c r="I8" t="s" s="70">
         <v>16</v>
@@ -1562,22 +1628,22 @@
         <v>11</v>
       </c>
       <c r="C9" t="s" s="74">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s" s="75">
         <v>29</v>
       </c>
-      <c r="D9" t="s" s="75">
-        <v>28</v>
-      </c>
       <c r="E9" t="s" s="76">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s" s="77">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s" s="78">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s" s="79">
         <v>23</v>
-      </c>
-      <c r="G9" t="s" s="78">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s" s="79">
-        <v>26</v>
       </c>
       <c r="I9" t="s" s="80">
         <v>16</v>
@@ -1594,22 +1660,22 @@
         <v>11</v>
       </c>
       <c r="C10" t="s" s="84">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s" s="85">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s" s="86">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s" s="87">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s" s="88">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s" s="89">
         <v>23</v>
-      </c>
-      <c r="G10" t="s" s="88">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s" s="89">
-        <v>26</v>
       </c>
       <c r="I10" t="s" s="90">
         <v>16</v>
@@ -1626,22 +1692,22 @@
         <v>11</v>
       </c>
       <c r="C11" t="s" s="94">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s" s="95">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s" s="96">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s" s="97">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s" s="98">
         <v>16</v>
       </c>
       <c r="H11" t="s" s="99">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" t="s" s="100">
         <v>16</v>
@@ -1658,22 +1724,22 @@
         <v>11</v>
       </c>
       <c r="C12" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s" s="105">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s" s="106">
         <v>31</v>
       </c>
-      <c r="D12" t="s" s="105">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s" s="106">
-        <v>32</v>
-      </c>
       <c r="F12" t="s" s="107">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s" s="108">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s" s="109">
         <v>23</v>
-      </c>
-      <c r="G12" t="s" s="108">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s" s="109">
-        <v>26</v>
       </c>
       <c r="I12" t="s" s="110">
         <v>16</v>
@@ -1687,25 +1753,25 @@
         <v>18</v>
       </c>
       <c r="B13" t="s" s="113">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s" s="114">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s" s="115">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s" s="116">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s" s="117">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s" s="118">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s" s="119">
         <v>25</v>
-      </c>
-      <c r="E13" t="s" s="116">
-        <v>32</v>
-      </c>
-      <c r="F13" t="s" s="117">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s" s="118">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s" s="119">
-        <v>26</v>
       </c>
       <c r="I13" t="s" s="120">
         <v>16</v>
@@ -1719,25 +1785,25 @@
         <v>18</v>
       </c>
       <c r="B14" t="s" s="123">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s" s="124">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s" s="125">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s" s="126">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s" s="127">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s" s="128">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s" s="129">
         <v>23</v>
-      </c>
-      <c r="G14" t="s" s="128">
-        <v>16</v>
-      </c>
-      <c r="H14" t="s" s="129">
-        <v>24</v>
       </c>
       <c r="I14" t="s" s="130">
         <v>16</v>
@@ -1751,25 +1817,25 @@
         <v>18</v>
       </c>
       <c r="B15" t="s" s="133">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s" s="134">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s" s="135">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s" s="136">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s" s="137">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s" s="138">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s" s="139">
         <v>23</v>
-      </c>
-      <c r="G15" t="s" s="138">
-        <v>16</v>
-      </c>
-      <c r="H15" t="s" s="139">
-        <v>26</v>
       </c>
       <c r="I15" t="s" s="140">
         <v>16</v>
@@ -1780,28 +1846,28 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="142">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s" s="143">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s" s="144">
         <v>33</v>
       </c>
-      <c r="B16" t="s" s="143">
+      <c r="D16" t="s" s="145">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s" s="146">
         <v>34</v>
       </c>
-      <c r="C16" t="s" s="144">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s" s="145">
-        <v>36</v>
-      </c>
-      <c r="E16" t="s" s="146">
-        <v>37</v>
-      </c>
       <c r="F16" t="s" s="147">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="G16" t="s" s="148">
         <v>16</v>
       </c>
       <c r="H16" t="s" s="149">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s" s="150">
         <v>16</v>
@@ -1812,28 +1878,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="152">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s" s="153">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s" s="154">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s" s="155">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s" s="156">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s" s="157">
         <v>40</v>
       </c>
-      <c r="C17" t="s" s="154">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s" s="155">
-        <v>36</v>
-      </c>
-      <c r="E17" t="s" s="156">
+      <c r="G17" t="s" s="158">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s" s="159">
         <v>41</v>
-      </c>
-      <c r="F17" t="s" s="157">
-        <v>38</v>
-      </c>
-      <c r="G17" t="s" s="158">
-        <v>16</v>
-      </c>
-      <c r="H17" t="s" s="159">
-        <v>39</v>
       </c>
       <c r="I17" t="s" s="160">
         <v>16</v>
@@ -1844,28 +1910,28 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="162">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s" s="163">
         <v>42</v>
       </c>
-      <c r="B18" t="s" s="163">
-        <v>19</v>
-      </c>
       <c r="C18" t="s" s="164">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s" s="165">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s" s="166">
         <v>43</v>
       </c>
-      <c r="E18" t="s" s="166">
-        <v>44</v>
-      </c>
       <c r="F18" t="s" s="167">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s" s="168">
         <v>16</v>
       </c>
       <c r="H18" t="s" s="169">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s" s="170">
         <v>16</v>
@@ -1876,33 +1942,65 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="172">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s" s="173">
         <v>11</v>
       </c>
       <c r="C19" t="s" s="174">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s" s="175">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s" s="176">
+        <v>46</v>
+      </c>
+      <c r="F19" t="s" s="177">
         <v>47</v>
       </c>
-      <c r="E19" t="s" s="176">
+      <c r="G19" t="s" s="178">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s" s="179">
         <v>48</v>
       </c>
-      <c r="F19" t="s" s="177">
-        <v>45</v>
-      </c>
-      <c r="G19" t="s" s="178">
-        <v>16</v>
-      </c>
-      <c r="H19" t="s" s="179">
+      <c r="I19" t="s" s="180">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s" s="181">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="182">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s" s="183">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s" s="184">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s" s="185">
         <v>49</v>
       </c>
-      <c r="I19" t="s" s="180">
-        <v>16</v>
-      </c>
-      <c r="J19" t="s" s="181">
+      <c r="E20" t="s" s="186">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s" s="187">
+        <v>47</v>
+      </c>
+      <c r="G20" t="s" s="188">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s" s="189">
+        <v>51</v>
+      </c>
+      <c r="I20" t="s" s="190">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s" s="191">
         <v>16</v>
       </c>
     </row>
